--- a/excels/rl_10_r_2_base.xlsx
+++ b/excels/rl_10_r_2_base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12510" yWindow="-15" windowWidth="16395" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="12510" yWindow="-15" windowWidth="16395" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="time" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="202">
   <si>
     <t>maze</t>
   </si>
@@ -671,6 +671,33 @@
   </si>
   <si>
     <t>0,9_0,9</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.9</t>
   </si>
 </sst>
 </file>
@@ -678,7 +705,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -713,24 +740,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1057,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R84"/>
+  <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N55" sqref="N55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11:R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5237,9 +5252,234 @@
         <v>13.031063100438042</v>
       </c>
     </row>
+    <row r="87" spans="1:18">
+      <c r="M87" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="N87" s="2">
+        <f ca="1">AVERAGE(OFFSET(N$2, (ROW()-ROW(M$87))*9,,9,))</f>
+        <v>200.20076391431996</v>
+      </c>
+      <c r="O87" s="2">
+        <f t="shared" ref="O87:R87" ca="1" si="1">AVERAGE(OFFSET(O$2, (ROW()-ROW(N$87))*9,,9,))</f>
+        <v>132.90332010057213</v>
+      </c>
+      <c r="P87" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>30.464444557825693</v>
+      </c>
+      <c r="Q87" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>20.456111537085601</v>
+      </c>
+      <c r="R87" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>11.753171364466333</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="M88" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="N88" s="2">
+        <f t="shared" ref="N88:R95" ca="1" si="2">AVERAGE(OFFSET(N$2, (ROW()-ROW(M$87))*9,,9,))</f>
+        <v>233.4645897547401</v>
+      </c>
+      <c r="O88" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>129.72519715627016</v>
+      </c>
+      <c r="P88" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>28.645554780960058</v>
+      </c>
+      <c r="Q88" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>17.441110690434755</v>
+      </c>
+      <c r="R88" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>16.311875634723219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="M89" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="N89" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>233.44944389661129</v>
+      </c>
+      <c r="O89" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>123.19807526800329</v>
+      </c>
+      <c r="P89" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>28.778334167268529</v>
+      </c>
+      <c r="Q89" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>18.774222162034746</v>
+      </c>
+      <c r="R89" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>13.802054378721431</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="M90" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="N90" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>233.39822191662219</v>
+      </c>
+      <c r="O90" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>121.00869883431308</v>
+      </c>
+      <c r="P90" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>28.033724705378187</v>
+      </c>
+      <c r="Q90" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>16.468555370966577</v>
+      </c>
+      <c r="R90" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>20.147847175598123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="M91" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N91" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>233.391059292687</v>
+      </c>
+      <c r="O91" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>128.62682488229521</v>
+      </c>
+      <c r="P91" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>28.549333598878629</v>
+      </c>
+      <c r="Q91" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>19.052111069361338</v>
+      </c>
+      <c r="R91" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.9213913546667909</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="M92" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="N92" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>266.71090761820426</v>
+      </c>
+      <c r="O92" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>119.7101633018916</v>
+      </c>
+      <c r="P92" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>27.382777690887433</v>
+      </c>
+      <c r="Q92" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>18.973110649320795</v>
+      </c>
+      <c r="R92" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>14.481666485468521</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="M93" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N93" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>266.68663292460923</v>
+      </c>
+      <c r="O93" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>118.02140866385535</v>
+      </c>
+      <c r="P93" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>28.287334071265306</v>
+      </c>
+      <c r="Q93" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>18.074613862567446</v>
+      </c>
+      <c r="R93" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.8826664288838675</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="M94" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="N94" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>266.70544115702262</v>
+      </c>
+      <c r="O94" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>96.699037604861587</v>
+      </c>
+      <c r="P94" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>27.565111345714964</v>
+      </c>
+      <c r="Q94" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>18.011666721767824</v>
+      </c>
+      <c r="R94" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.5166663858625515</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="M95" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N95" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>266.68657525380405</v>
+      </c>
+      <c r="O95" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>97.159912029901776</v>
+      </c>
+      <c r="P95" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>27.739116032918268</v>
+      </c>
+      <c r="Q95" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>16.232999907599535</v>
+      </c>
+      <c r="R95" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>16.462228695551534</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="H1:L82">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5254,10 +5494,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R85"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="Q85" sqref="Q85"/>
+    <sheetView topLeftCell="C76" workbookViewId="0">
+      <selection activeCell="M87" sqref="M87:R95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5266,7 +5506,7 @@
     <col min="2" max="6" width="14.625" customWidth="1"/>
     <col min="7" max="7" width="2.375" customWidth="1"/>
     <col min="8" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="2.5" customWidth="1"/>
+    <col min="13" max="13" width="11.875" bestFit="1" customWidth="1"/>
     <col min="14" max="18" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9496,6 +9736,260 @@
       <c r="R85" s="1">
         <f t="shared" si="3"/>
         <v>6303.6172839506171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="M87" t="s">
+        <v>193</v>
+      </c>
+      <c r="N87">
+        <f ca="1">AVERAGE(OFFSET(N$2, (ROW()-ROW(M$87))*9,,9,))</f>
+        <v>971894.22222222225</v>
+      </c>
+      <c r="O87">
+        <f t="shared" ref="O87:R87" ca="1" si="4">AVERAGE(OFFSET(O$2, (ROW()-ROW(N$87))*9,,9,))</f>
+        <v>651.77777777777783</v>
+      </c>
+      <c r="P87">
+        <f t="shared" ca="1" si="4"/>
+        <v>76.555555555555557</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" ca="1" si="4"/>
+        <v>113.44444444444444</v>
+      </c>
+      <c r="R87">
+        <f t="shared" ca="1" si="4"/>
+        <v>4427.4444444444443</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="M88" t="s">
+        <v>194</v>
+      </c>
+      <c r="N88">
+        <f t="shared" ref="N88:R95" ca="1" si="5">AVERAGE(OFFSET(N$2, (ROW()-ROW(M$87))*9,,9,))</f>
+        <v>1149079.888888889</v>
+      </c>
+      <c r="O88">
+        <f t="shared" ca="1" si="5"/>
+        <v>1022.3333333333334</v>
+      </c>
+      <c r="P88">
+        <f t="shared" ca="1" si="5"/>
+        <v>211</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" ca="1" si="5"/>
+        <v>173.66666666666666</v>
+      </c>
+      <c r="R88">
+        <f t="shared" ca="1" si="5"/>
+        <v>8104.333333333333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="M89" t="s">
+        <v>195</v>
+      </c>
+      <c r="N89">
+        <f t="shared" ca="1" si="5"/>
+        <v>1161786.888888889</v>
+      </c>
+      <c r="O89">
+        <f t="shared" ca="1" si="5"/>
+        <v>614.77777777777783</v>
+      </c>
+      <c r="P89">
+        <f t="shared" ca="1" si="5"/>
+        <v>157.66666666666666</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" ca="1" si="5"/>
+        <v>97.222222222222229</v>
+      </c>
+      <c r="R89">
+        <f t="shared" ca="1" si="5"/>
+        <v>7357.8888888888887</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="M90" t="s">
+        <v>196</v>
+      </c>
+      <c r="N90">
+        <f t="shared" ca="1" si="5"/>
+        <v>1164867.5555555555</v>
+      </c>
+      <c r="O90">
+        <f t="shared" ca="1" si="5"/>
+        <v>414.77777777777777</v>
+      </c>
+      <c r="P90">
+        <f t="shared" ca="1" si="5"/>
+        <v>186.11111111111111</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" ca="1" si="5"/>
+        <v>87.888888888888886</v>
+      </c>
+      <c r="R90">
+        <f t="shared" ca="1" si="5"/>
+        <v>11743</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="M91" t="s">
+        <v>197</v>
+      </c>
+      <c r="N91">
+        <f t="shared" ca="1" si="5"/>
+        <v>1185263.6666666667</v>
+      </c>
+      <c r="O91">
+        <f t="shared" ca="1" si="5"/>
+        <v>256.11111111111109</v>
+      </c>
+      <c r="P91">
+        <f t="shared" ca="1" si="5"/>
+        <v>156.77777777777777</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" ca="1" si="5"/>
+        <v>126.11111111111111</v>
+      </c>
+      <c r="R91">
+        <f t="shared" ca="1" si="5"/>
+        <v>2238.1111111111113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="M92" t="s">
+        <v>198</v>
+      </c>
+      <c r="N92">
+        <f t="shared" ca="1" si="5"/>
+        <v>1332544.6666666667</v>
+      </c>
+      <c r="O92">
+        <f t="shared" ca="1" si="5"/>
+        <v>300.11111111111109</v>
+      </c>
+      <c r="P92">
+        <f t="shared" ca="1" si="5"/>
+        <v>132.55555555555554</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" ca="1" si="5"/>
+        <v>65.222222222222229</v>
+      </c>
+      <c r="R92">
+        <f t="shared" ca="1" si="5"/>
+        <v>6636.5555555555557</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="M93" t="s">
+        <v>199</v>
+      </c>
+      <c r="N93">
+        <f t="shared" ca="1" si="5"/>
+        <v>1479452.111111111</v>
+      </c>
+      <c r="O93">
+        <f t="shared" ca="1" si="5"/>
+        <v>201.88888888888889</v>
+      </c>
+      <c r="P93">
+        <f t="shared" ca="1" si="5"/>
+        <v>155.88888888888889</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" ca="1" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="R93">
+        <f t="shared" ca="1" si="5"/>
+        <v>1511.2222222222222</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="M94" t="s">
+        <v>200</v>
+      </c>
+      <c r="N94">
+        <f t="shared" ca="1" si="5"/>
+        <v>1635466</v>
+      </c>
+      <c r="O94">
+        <f t="shared" ca="1" si="5"/>
+        <v>833.88888888888891</v>
+      </c>
+      <c r="P94">
+        <f t="shared" ca="1" si="5"/>
+        <v>143.44444444444446</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" ca="1" si="5"/>
+        <v>102.55555555555556</v>
+      </c>
+      <c r="R94">
+        <f t="shared" ca="1" si="5"/>
+        <v>4434.5555555555557</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="M95" t="s">
+        <v>201</v>
+      </c>
+      <c r="N95">
+        <f t="shared" ca="1" si="5"/>
+        <v>1956400.4444444445</v>
+      </c>
+      <c r="O95">
+        <f t="shared" ca="1" si="5"/>
+        <v>352.11111111111109</v>
+      </c>
+      <c r="P95">
+        <f t="shared" ca="1" si="5"/>
+        <v>128.77777777777777</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" ca="1" si="5"/>
+        <v>113</v>
+      </c>
+      <c r="R95">
+        <f t="shared" ca="1" si="5"/>
+        <v>10279.444444444445</v>
+      </c>
+    </row>
+    <row r="101" spans="8:16">
+      <c r="H101">
+        <v>4427.4444444444443</v>
+      </c>
+      <c r="I101">
+        <v>8104.333333333333</v>
+      </c>
+      <c r="J101">
+        <v>7357.8888888888887</v>
+      </c>
+      <c r="K101">
+        <v>11743</v>
+      </c>
+      <c r="L101">
+        <v>2238.1111111111113</v>
+      </c>
+      <c r="M101">
+        <v>6636.5555555555557</v>
+      </c>
+      <c r="N101">
+        <v>1511.2222222222222</v>
+      </c>
+      <c r="O101">
+        <v>4434.5555555555557</v>
+      </c>
+      <c r="P101">
+        <v>10279.444444444445</v>
       </c>
     </row>
   </sheetData>
